--- a/Processed Results/Nexus 5X/Local Storage/Local Storage - Raw.xlsx
+++ b/Processed Results/Nexus 5X/Local Storage/Local Storage - Raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Local Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\Local Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F169AC-E99F-4A11-9AFE-8A864B4D0A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A301C9A7-EE95-4DBC-A79A-C61804115E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="9990" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="970" windowWidth="9990" windowHeight="9830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -368,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,7 +388,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>96.245819999999995</v>
+        <v>111.838104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>97.518491999999995</v>
+        <v>127.65834</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -404,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>96.723072000000002</v>
+        <v>126.405252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>96.882155999999995</v>
+        <v>127.501704</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>96.245819999999995</v>
+        <v>127.501704</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>95.927651999999995</v>
+        <v>126.87515999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>96.086735999999902</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>96.404904000000002</v>
+        <v>127.188431999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -452,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>95.768567999999902</v>
+        <v>126.71852399999899</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>97.359408000000002</v>
+        <v>126.87515999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>96.404904000000002</v>
+        <v>127.031796</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>96.245819999999995</v>
+        <v>124.682256</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>95.927651999999995</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>96.723072000000002</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>96.404904000000002</v>
+        <v>126.561888</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>95.291315999999995</v>
+        <v>126.87515999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>95.609483999999995</v>
+        <v>127.188431999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>95.927651999999995</v>
+        <v>126.87515999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>96.245819999999995</v>
+        <v>126.71852399999899</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>96.086735999999902</v>
+        <v>126.561888</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>96.563987999999995</v>
+        <v>126.87515999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>96.723072000000002</v>
+        <v>126.87515999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>96.563987999999995</v>
+        <v>117.633636</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>95.927651999999995</v>
+        <v>127.501704</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>96.086735999999902</v>
+        <v>127.031796</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>95.927651999999995</v>
+        <v>127.188431999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>96.245819999999995</v>
+        <v>127.501704</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>96.404904000000002</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>96.404904000000002</v>
+        <v>125.778707999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>96.245819999999995</v>
+        <v>126.87515999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>96.547499999999999</v>
+        <v>112.93455599999901</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>97.492500000000007</v>
+        <v>127.65834</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>97.334999999999994</v>
+        <v>126.71852399999899</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>96.075000000000003</v>
+        <v>128.12824800000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>96.862499999999997</v>
+        <v>127.814976</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>96.704999999999998</v>
+        <v>127.188431999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>97.02</v>
+        <v>127.031796</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>97.334999999999994</v>
+        <v>127.031796</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>97.177499999999995</v>
+        <v>126.71852399999899</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>95.759999999999906</v>
+        <v>127.188431999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>96.547499999999999</v>
+        <v>127.031796</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>95.917500000000004</v>
+        <v>125.465436</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>97.02</v>
+        <v>127.188431999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>97.965000000000003</v>
+        <v>127.031796</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>97.02</v>
+        <v>126.248616</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>96.075000000000003</v>
+        <v>126.71852399999899</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>96.862499999999997</v>
+        <v>126.561888</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>96.075000000000003</v>
+        <v>126.87515999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>96.547499999999999</v>
+        <v>126.71852399999899</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>96.704999999999998</v>
+        <v>126.71852399999899</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>98.4375</v>
+        <v>127.031796</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>97.02</v>
+        <v>127.188431999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>98.4375</v>
+        <v>123.89907599999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>97.02</v>
+        <v>127.65834</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B56">
-        <v>96.862499999999997</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>96.075000000000003</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>95.444999999999993</v>
+        <v>127.501704</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>95.917500000000004</v>
+        <v>126.71852399999899</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <v>96.232500000000002</v>
+        <v>126.09198000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>97.177499999999995</v>
+        <v>127.031796</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>96.542135999999999</v>
+        <v>162.90144000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>96.701183999999998</v>
+        <v>129.22469999999899</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -884,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>96.542135999999999</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -892,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>96.383087999999901</v>
+        <v>128.12824800000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>96.701183999999998</v>
+        <v>128.12824800000001</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>95.269751999999997</v>
+        <v>127.501704</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <v>96.542135999999999</v>
+        <v>128.12824800000001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -924,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>96.064992000000004</v>
+        <v>128.12824800000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>96.064992000000004</v>
+        <v>127.031796</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -940,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>96.224039999999903</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="B72">
-        <v>96.542135999999999</v>
+        <v>127.188431999999</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>96.542135999999999</v>
+        <v>123.585804</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -964,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="B74">
-        <v>96.224039999999903</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>96.383087999999901</v>
+        <v>127.65834</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -980,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="B76">
-        <v>96.064992000000004</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -988,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>96.064992000000004</v>
+        <v>127.97161199999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="B78">
-        <v>97.019279999999995</v>
+        <v>127.188431999999</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B79">
-        <v>96.701183999999998</v>
+        <v>127.501704</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>98.132615999999999</v>
+        <v>127.65834</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="B81">
-        <v>96.224039999999903</v>
+        <v>127.031796</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1028,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="B82">
-        <v>96.064992000000004</v>
+        <v>127.501704</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1036,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B83">
-        <v>96.542135999999999</v>
+        <v>127.65834</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1044,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="B84">
-        <v>97.973568</v>
+        <v>128.28488399999901</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="B85">
-        <v>96.860231999999996</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="B86">
-        <v>96.064992000000004</v>
+        <v>127.501704</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="B87">
-        <v>96.383087999999901</v>
+        <v>127.188431999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="B88">
-        <v>96.224039999999903</v>
+        <v>127.97161199999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="B89">
-        <v>96.383087999999901</v>
+        <v>127.345068</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1092,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="B90">
-        <v>97.178327999999993</v>
+        <v>124.838892</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1100,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="B91">
-        <v>95.746895999999893</v>
+        <v>127.188431999999</v>
       </c>
     </row>
   </sheetData>
